--- a/data/lens.xlsx
+++ b/data/lens.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>image</t>
   </si>
@@ -46,13 +46,34 @@
     <t>on the way back!</t>
   </si>
   <si>
-    <t>--</t>
+    <t>Boston to Mumbai</t>
+  </si>
+  <si>
+    <t>Travel</t>
   </si>
   <si>
     <t>Boston Airport</t>
   </si>
   <si>
+    <t>July 2025</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>/assets/images/lens/airport_photo.jpg</t>
+  </si>
+  <si>
+    <t>First International Solo Trip</t>
+  </si>
+  <si>
+    <t>Mumbai to Washington</t>
+  </si>
+  <si>
+    <t>Mumbai Aiport</t>
+  </si>
+  <si>
+    <t>June 2025</t>
   </si>
 </sst>
 </file>
@@ -523,29 +544,43 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>

--- a/data/lens.xlsx
+++ b/data/lens.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>image</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>June 2025</t>
+  </si>
+  <si>
+    <t>/assets/images/lens/JHU_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloomberg Center of Astrphysics </t>
+  </si>
+  <si>
+    <t>Place of Work</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
   </si>
 </sst>
 </file>
@@ -148,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,13 +171,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
@@ -174,10 +183,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,18 +499,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="62.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="55.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="59.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="57.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="80.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="104.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="62.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="55.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="59.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="57.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="80.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="104.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="38.25" customFormat="1" s="1">
@@ -517,7 +526,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -534,171 +543,185 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="102.75" customFormat="1" s="1">
-      <c r="A2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="38.25" customFormat="1" s="1">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54.75" customFormat="1" s="1">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5" customFormat="1" s="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="167.25" customFormat="1" s="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39" customFormat="1" s="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25" customFormat="1" s="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
